--- a/config_hlw/fish3d_hall_config.xlsx
+++ b/config_hlw/fish3d_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="2">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>

--- a/config_hlw/fish3d_hall_config.xlsx
+++ b/config_hlw/fish3d_hall_config.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -727,9 +727,7 @@
       <c r="H4" s="10">
         <v>100000</v>
       </c>
-      <c r="I4" s="10">
-        <v>200000000</v>
-      </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="2">
         <v>1</v>
       </c>

--- a/config_hlw/fish3d_hall_config.xlsx
+++ b/config_hlw/fish3d_hall_config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>sceneID|场景ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -81,12 +81,6 @@
     <t>10,20,30,40,50,60,70,80,90,100,</t>
   </si>
   <si>
-    <t>100,200,300,400,500,600,700,800,900,1000,</t>
-  </si>
-  <si>
-    <t>1000,2000,3000,4000,5000,6000,7000,8000,9000,10000,</t>
-  </si>
-  <si>
     <t>10000,20000,30000,40000,50000,60000,70000,80000,90000,100000,</t>
   </si>
   <si>
@@ -127,6 +121,26 @@
   </si>
   <si>
     <t>藏宝海湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,3000,4000,5000,8000,10000,20000,30000,40000,50000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,20000,30000,40000,50000,60000,70000,80000,90000,100000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,5000,10000,20000,30000,50000,60000,80000,90000,100000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,500,800,1000,2000,5000,8000,10000,15000,20000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300,500,800,1000,2000,5000,8000,10000,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +225,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -245,7 +265,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,9 +283,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -277,6 +294,29 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -562,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -630,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
@@ -644,8 +684,8 @@
       <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10">
         <v>60000</v>
       </c>
       <c r="J2" s="2">
@@ -657,129 +697,129 @@
       <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:13" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
         <v>2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="13">
         <v>0</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="13">
         <v>500000</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="11">
         <v>499999</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12">
+        <v>27</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13">
+        <v>100000</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13">
+        <v>500000</v>
+      </c>
+      <c r="L4" s="11">
+        <v>5999999</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="17">
+        <v>27</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
+        <v>4</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="I5" s="18">
+        <v>800000000</v>
+      </c>
+      <c r="J5" s="16">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16">
+        <v>6000000</v>
+      </c>
+      <c r="L5" s="16">
+        <v>59999999</v>
+      </c>
+      <c r="M5" s="19" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="10">
-        <v>100000</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="10">
-        <v>500000</v>
-      </c>
-      <c r="L4" s="2">
-        <v>5999999</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>4</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="I5" s="10">
-        <v>800000000</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>6000000</v>
-      </c>
-      <c r="L5" s="2">
-        <v>59999999</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -790,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4">
         <v>27</v>
@@ -804,130 +844,130 @@
       <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>10000000</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="2">
         <v>60000000</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="M6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12">
+        <v>27</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>5999999</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>9999999</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D9" s="12">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>5999999</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4">
-        <v>27</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>100000</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>6000000</v>
-      </c>
-      <c r="L8" s="2">
-        <v>9999999</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
         <v>3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="11">
         <v>200000</v>
       </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11">
         <v>10000000</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>17</v>
+      <c r="M9" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -937,8 +977,8 @@
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>

--- a/config_hlw/fish3d_hall_config.xlsx
+++ b/config_hlw/fish3d_hall_config.xlsx
@@ -136,11 +136,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>200,500,800,1000,2000,5000,8000,10000,15000,20000,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100,200,300,500,800,1000,2000,5000,8000,10000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,500,800,1000,2000,5000,8000,10000,20000,50000,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +603,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -739,7 +739,7 @@
         <v>499999</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -894,7 +894,7 @@
         <v>5999999</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">

--- a/config_hlw/fish3d_hall_config.xlsx
+++ b/config_hlw/fish3d_hall_config.xlsx
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000,20000,30000,40000,50000,60000,70000,80000,90000,100000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2000,5000,10000,20000,30000,50000,60000,80000,90000,100000,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -142,6 +138,10 @@
   <si>
     <t>200,500,800,1000,2000,5000,8000,10000,20000,50000,</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,2000,3000,4000,5000,6000,7000,8000,9000,10000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -739,7 +739,7 @@
         <v>499999</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -894,7 +894,7 @@
         <v>5999999</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -932,7 +932,7 @@
         <v>9999999</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -967,7 +967,7 @@
         <v>10000000</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
